--- a/src/test/java/_02_ApachePOI/Resources/ScenarioStatus.xlsx
+++ b/src/test/java/_02_ApachePOI/Resources/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="226">
   <si>
     <t>Add Nationality Positive</t>
   </si>
@@ -567,6 +567,129 @@
   </si>
   <si>
     <t>26-10-2022 21:55:24</t>
+  </si>
+  <si>
+    <t>27-10-2022 10:25:20</t>
+  </si>
+  <si>
+    <t>27-10-2022 10:26:15</t>
+  </si>
+  <si>
+    <t>27-10-2022 10:26:29</t>
+  </si>
+  <si>
+    <t>27-10-2022 10:26:50</t>
+  </si>
+  <si>
+    <t>27-10-2022 10:27:11</t>
+  </si>
+  <si>
+    <t>27-10-2022 10:27:31</t>
+  </si>
+  <si>
+    <t>27-10-2022 10:27:56</t>
+  </si>
+  <si>
+    <t>27-10-2022 10:28:18</t>
+  </si>
+  <si>
+    <t>Add Fields Positive</t>
+  </si>
+  <si>
+    <t>UNDEFINED</t>
+  </si>
+  <si>
+    <t>04-11-2022 12:42:04</t>
+  </si>
+  <si>
+    <t>Add Fields Negative</t>
+  </si>
+  <si>
+    <t>04-11-2022 12:42:11</t>
+  </si>
+  <si>
+    <t>Edit Fields</t>
+  </si>
+  <si>
+    <t>04-11-2022 12:42:20</t>
+  </si>
+  <si>
+    <t>Delete Fields Positive</t>
+  </si>
+  <si>
+    <t>04-11-2022 12:42:26</t>
+  </si>
+  <si>
+    <t>Delete Fields Negative</t>
+  </si>
+  <si>
+    <t>04-11-2022 12:42:32</t>
+  </si>
+  <si>
+    <t>04-11-2022 15:27:10</t>
+  </si>
+  <si>
+    <t>04-11-2022 15:35:48</t>
+  </si>
+  <si>
+    <t>04-11-2022 15:45:48</t>
+  </si>
+  <si>
+    <t>04-11-2022 15:46:10</t>
+  </si>
+  <si>
+    <t>04-11-2022 15:46:37</t>
+  </si>
+  <si>
+    <t>04-11-2022 16:02:56</t>
+  </si>
+  <si>
+    <t>04-11-2022 16:22:11</t>
+  </si>
+  <si>
+    <t>04-11-2022 16:23:38</t>
+  </si>
+  <si>
+    <t>04-11-2022 16:25:22</t>
+  </si>
+  <si>
+    <t>04-11-2022 16:31:07</t>
+  </si>
+  <si>
+    <t>04-11-2022 16:33:10</t>
+  </si>
+  <si>
+    <t>04-11-2022 16:34:36</t>
+  </si>
+  <si>
+    <t>04-11-2022 16:35:21</t>
+  </si>
+  <si>
+    <t>04-11-2022 16:35:42</t>
+  </si>
+  <si>
+    <t>04-11-2022 16:36:17</t>
+  </si>
+  <si>
+    <t>04-11-2022 16:36:58</t>
+  </si>
+  <si>
+    <t>04-11-2022 16:37:36</t>
+  </si>
+  <si>
+    <t>07-11-2022 09:14:45</t>
+  </si>
+  <si>
+    <t>07-11-2022 09:15:00</t>
+  </si>
+  <si>
+    <t>07-11-2022 09:15:32</t>
+  </si>
+  <si>
+    <t>07-11-2022 09:16:09</t>
+  </si>
+  <si>
+    <t>07-11-2022 09:16:44</t>
   </si>
 </sst>
 </file>
@@ -611,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2997,6 +3120,496 @@
         <v>184</v>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>46</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>48</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>50</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>50</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>55</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>55</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>193</v>
+      </c>
+      <c r="B179" t="s">
+        <v>194</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>196</v>
+      </c>
+      <c r="B180" t="s">
+        <v>194</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>198</v>
+      </c>
+      <c r="B181" t="s">
+        <v>194</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>200</v>
+      </c>
+      <c r="B182" t="s">
+        <v>194</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>202</v>
+      </c>
+      <c r="B183" t="s">
+        <v>194</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>193</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>193</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>193</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>196</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>198</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>198</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>198</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>198</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>198</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>200</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>202</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>202</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>193</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>196</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>198</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>200</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>202</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/_02_ApachePOI/Resources/ScenarioStatus.xlsx
+++ b/src/test/java/_02_ApachePOI/Resources/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="251">
   <si>
     <t>Add Nationality Positive</t>
   </si>
@@ -690,6 +690,81 @@
   </si>
   <si>
     <t>07-11-2022 09:16:44</t>
+  </si>
+  <si>
+    <t>07-11-2022 10:47:47</t>
+  </si>
+  <si>
+    <t>07-11-2022 10:48:02</t>
+  </si>
+  <si>
+    <t>07-11-2022 10:48:33</t>
+  </si>
+  <si>
+    <t>07-11-2022 10:49:09</t>
+  </si>
+  <si>
+    <t>07-11-2022 10:49:44</t>
+  </si>
+  <si>
+    <t>07-11-2022 10:50:40</t>
+  </si>
+  <si>
+    <t>07-11-2022 10:50:54</t>
+  </si>
+  <si>
+    <t>07-11-2022 10:51:30</t>
+  </si>
+  <si>
+    <t>07-11-2022 10:52:06</t>
+  </si>
+  <si>
+    <t>07-11-2022 10:52:41</t>
+  </si>
+  <si>
+    <t>07-11-2022 10:55:01</t>
+  </si>
+  <si>
+    <t>07-11-2022 10:55:17</t>
+  </si>
+  <si>
+    <t>07-11-2022 10:55:48</t>
+  </si>
+  <si>
+    <t>07-11-2022 10:56:24</t>
+  </si>
+  <si>
+    <t>07-11-2022 10:56:59</t>
+  </si>
+  <si>
+    <t>07-11-2022 11:17:48</t>
+  </si>
+  <si>
+    <t>07-11-2022 11:18:02</t>
+  </si>
+  <si>
+    <t>07-11-2022 11:18:33</t>
+  </si>
+  <si>
+    <t>07-11-2022 11:19:07</t>
+  </si>
+  <si>
+    <t>07-11-2022 11:19:42</t>
+  </si>
+  <si>
+    <t>07-11-2022 11:21:22</t>
+  </si>
+  <si>
+    <t>07-11-2022 11:21:37</t>
+  </si>
+  <si>
+    <t>07-11-2022 11:22:06</t>
+  </si>
+  <si>
+    <t>07-11-2022 11:22:41</t>
+  </si>
+  <si>
+    <t>07-11-2022 11:23:15</t>
   </si>
 </sst>
 </file>
@@ -734,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3610,6 +3685,356 @@
         <v>225</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>193</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>196</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>198</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>200</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>202</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>193</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>196</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>198</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>200</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>202</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>193</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>196</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>198</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>200</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>202</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>193</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>196</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>198</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>2</v>
+      </c>
+      <c r="D223" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>200</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>202</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>193</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>196</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>198</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>200</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>202</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/_02_ApachePOI/Resources/ScenarioStatus.xlsx
+++ b/src/test/java/_02_ApachePOI/Resources/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="282">
   <si>
     <t>Add Nationality Positive</t>
   </si>
@@ -567,6 +567,297 @@
   </si>
   <si>
     <t>26-10-2022 21:55:24</t>
+  </si>
+  <si>
+    <t>01-11-2022 11:18:18</t>
+  </si>
+  <si>
+    <t>01-11-2022 11:19:34</t>
+  </si>
+  <si>
+    <t>01-11-2022 11:24:59</t>
+  </si>
+  <si>
+    <t>Add Discounts Positive</t>
+  </si>
+  <si>
+    <t>10-11-2022 14:49:39</t>
+  </si>
+  <si>
+    <t>Add Discount Negative</t>
+  </si>
+  <si>
+    <t>10-11-2022 14:50:14</t>
+  </si>
+  <si>
+    <t>Edit Discounts</t>
+  </si>
+  <si>
+    <t>10-11-2022 14:51:32</t>
+  </si>
+  <si>
+    <t>Delete Discounts Positive</t>
+  </si>
+  <si>
+    <t>10-11-2022 14:52:51</t>
+  </si>
+  <si>
+    <t>Delete Discounts Negative</t>
+  </si>
+  <si>
+    <t>10-11-2022 14:53:38</t>
+  </si>
+  <si>
+    <t>10-11-2022 16:49:41</t>
+  </si>
+  <si>
+    <t>10-11-2022 16:49:59</t>
+  </si>
+  <si>
+    <t>10-11-2022 16:50:32</t>
+  </si>
+  <si>
+    <t>10-11-2022 16:51:10</t>
+  </si>
+  <si>
+    <t>10-11-2022 16:51:45</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:21:41</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:22:02</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:22:28</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:22:55</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:23:21</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:26:47</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:27:14</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:29:43</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:29:51</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:33:22</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:33:50</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:36:58</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:47:37</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:50:20</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:54:30</t>
+  </si>
+  <si>
+    <t>10-11-2022 17:58:46</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:05:32</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:05:53</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:06:47</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:08:26</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:08:46</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:09:19</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:09:57</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:10:22</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:21:20</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:21:41</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:22:17</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:22:57</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:23:36</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:23:54</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:24:13</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:24:45</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:25:23</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:25:49</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:39:42</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:40:02</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:40:36</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:41:17</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:41:56</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:42:13</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:42:31</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:43:02</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:43:38</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:44:03</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:46:38</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:46:57</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:47:32</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:48:12</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:48:50</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:49:06</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:49:23</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:49:54</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:50:32</t>
+  </si>
+  <si>
+    <t>10-11-2022 18:50:57</t>
+  </si>
+  <si>
+    <t>11-11-2022 09:37:20</t>
+  </si>
+  <si>
+    <t>11-11-2022 09:40:44</t>
+  </si>
+  <si>
+    <t>11-11-2022 09:40:45</t>
+  </si>
+  <si>
+    <t>11-11-2022 09:40:46</t>
+  </si>
+  <si>
+    <t>11-11-2022 09:47:49</t>
+  </si>
+  <si>
+    <t>11-11-2022 09:48:53</t>
+  </si>
+  <si>
+    <t>11-11-2022 09:52:48</t>
+  </si>
+  <si>
+    <t>11-11-2022 09:52:57</t>
+  </si>
+  <si>
+    <t>11-11-2022 10:43:43</t>
+  </si>
+  <si>
+    <t>11-11-2022 10:43:49</t>
+  </si>
+  <si>
+    <t>11-11-2022 10:43:50</t>
+  </si>
+  <si>
+    <t>11-11-2022 10:49:13</t>
+  </si>
+  <si>
+    <t>11-11-2022 10:52:59</t>
+  </si>
+  <si>
+    <t>11-11-2022 10:58:21</t>
+  </si>
+  <si>
+    <t>11-11-2022 15:11:43</t>
+  </si>
+  <si>
+    <t>11-11-2022 15:15:37</t>
+  </si>
+  <si>
+    <t>11-11-2022 15:15:44</t>
+  </si>
+  <si>
+    <t>11-11-2022 15:15:45</t>
+  </si>
+  <si>
+    <t>11-11-2022 15:15:46</t>
+  </si>
+  <si>
+    <t>11-11-2022 15:15:47</t>
+  </si>
+  <si>
+    <t>11-11-2022 15:17:04</t>
+  </si>
+  <si>
+    <t>11-11-2022 15:17:12</t>
+  </si>
+  <si>
+    <t>11-11-2022 15:17:13</t>
+  </si>
+  <si>
+    <t>11-11-2022 15:17:14</t>
+  </si>
+  <si>
+    <t>11-11-2022 15:17:15</t>
   </si>
 </sst>
 </file>
@@ -611,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D279"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2997,6 +3288,1532 @@
         <v>184</v>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>188</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>190</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>192</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>194</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>196</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>188</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>192</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>196</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>46</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>48</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>50</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>55</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>48</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>50</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>48</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>50</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>48</v>
+      </c>
+      <c r="B193" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>50</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>48</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>48</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>48</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>48</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>48</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>46</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>48</v>
+      </c>
+      <c r="B202" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>46</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>48</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>50</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>55</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>188</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>190</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>192</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>194</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>196</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>46</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>48</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>50</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>55</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>188</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>190</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>192</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>194</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>196</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>2</v>
+      </c>
+      <c r="D223" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>46</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>48</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>50</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>55</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>188</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>190</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>192</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>194</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>196</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>46</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>48</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>50</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>55</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>188</v>
+      </c>
+      <c r="B238" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>188</v>
+      </c>
+      <c r="B239" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>190</v>
+      </c>
+      <c r="B240" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" t="s">
+        <v>2</v>
+      </c>
+      <c r="D240" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>192</v>
+      </c>
+      <c r="B241" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>194</v>
+      </c>
+      <c r="B242" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>196</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>0</v>
+      </c>
+      <c r="B244" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>46</v>
+      </c>
+      <c r="B245" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>48</v>
+      </c>
+      <c r="B246" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>50</v>
+      </c>
+      <c r="B247" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>55</v>
+      </c>
+      <c r="B248" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>188</v>
+      </c>
+      <c r="B249" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>188</v>
+      </c>
+      <c r="B250" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>188</v>
+      </c>
+      <c r="B251" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>190</v>
+      </c>
+      <c r="B252" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>188</v>
+      </c>
+      <c r="B253" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>190</v>
+      </c>
+      <c r="B254" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>192</v>
+      </c>
+      <c r="B255" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>188</v>
+      </c>
+      <c r="B256" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>188</v>
+      </c>
+      <c r="B257" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>188</v>
+      </c>
+      <c r="B258" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>188</v>
+      </c>
+      <c r="B259" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>188</v>
+      </c>
+      <c r="B260" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>190</v>
+      </c>
+      <c r="B261" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>192</v>
+      </c>
+      <c r="B262" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>194</v>
+      </c>
+      <c r="B263" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>196</v>
+      </c>
+      <c r="B264" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>46</v>
+      </c>
+      <c r="B266" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>48</v>
+      </c>
+      <c r="B267" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267" t="s">
+        <v>2</v>
+      </c>
+      <c r="D267" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>50</v>
+      </c>
+      <c r="B268" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>55</v>
+      </c>
+      <c r="B269" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>188</v>
+      </c>
+      <c r="B270" t="s">
+        <v>4</v>
+      </c>
+      <c r="C270" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>190</v>
+      </c>
+      <c r="B271" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271" t="s">
+        <v>2</v>
+      </c>
+      <c r="D271" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>192</v>
+      </c>
+      <c r="B272" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>194</v>
+      </c>
+      <c r="B273" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>196</v>
+      </c>
+      <c r="B274" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>0</v>
+      </c>
+      <c r="B275" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275" t="s">
+        <v>2</v>
+      </c>
+      <c r="D275" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>46</v>
+      </c>
+      <c r="B276" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>48</v>
+      </c>
+      <c r="B277" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>50</v>
+      </c>
+      <c r="B278" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>55</v>
+      </c>
+      <c r="B279" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/_02_ApachePOI/Resources/ScenarioStatus.xlsx
+++ b/src/test/java/_02_ApachePOI/Resources/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="316">
   <si>
     <t>Add Nationality Positive</t>
   </si>
@@ -858,6 +858,108 @@
   </si>
   <si>
     <t>11-11-2022 15:17:15</t>
+  </si>
+  <si>
+    <t>11-11-2022 17:02:05</t>
+  </si>
+  <si>
+    <t>11-11-2022 17:02:33</t>
+  </si>
+  <si>
+    <t>11-11-2022 17:03:13</t>
+  </si>
+  <si>
+    <t>11-11-2022 17:03:55</t>
+  </si>
+  <si>
+    <t>11-11-2022 17:04:37</t>
+  </si>
+  <si>
+    <t>11-11-2022 17:04:59</t>
+  </si>
+  <si>
+    <t>11-11-2022 17:05:19</t>
+  </si>
+  <si>
+    <t>11-11-2022 17:05:50</t>
+  </si>
+  <si>
+    <t>11-11-2022 17:05:58</t>
+  </si>
+  <si>
+    <t>11-11-2022 17:07:02</t>
+  </si>
+  <si>
+    <t>11-11-2022 17:16:34</t>
+  </si>
+  <si>
+    <t>11-11-2022 17:17:56</t>
+  </si>
+  <si>
+    <t>14-11-2022 08:18:56</t>
+  </si>
+  <si>
+    <t>14-11-2022 08:19:57</t>
+  </si>
+  <si>
+    <t>14-11-2022 08:21:12</t>
+  </si>
+  <si>
+    <t>14-11-2022 08:22:12</t>
+  </si>
+  <si>
+    <t>14-11-2022 08:23:30</t>
+  </si>
+  <si>
+    <t>14-11-2022 08:23:52</t>
+  </si>
+  <si>
+    <t>14-11-2022 08:24:10</t>
+  </si>
+  <si>
+    <t>14-11-2022 08:25:29</t>
+  </si>
+  <si>
+    <t>14-11-2022 08:26:43</t>
+  </si>
+  <si>
+    <t>14-11-2022 08:27:37</t>
+  </si>
+  <si>
+    <t>14-11-2022 09:45:11</t>
+  </si>
+  <si>
+    <t>14-11-2022 09:45:32</t>
+  </si>
+  <si>
+    <t>14-11-2022 09:45:42</t>
+  </si>
+  <si>
+    <t>14-11-2022 09:46:51</t>
+  </si>
+  <si>
+    <t>14-11-2022 09:47:29</t>
+  </si>
+  <si>
+    <t>14-11-2022 09:47:46</t>
+  </si>
+  <si>
+    <t>14-11-2022 09:48:04</t>
+  </si>
+  <si>
+    <t>14-11-2022 09:48:36</t>
+  </si>
+  <si>
+    <t>14-11-2022 09:49:14</t>
+  </si>
+  <si>
+    <t>14-11-2022 09:49:38</t>
+  </si>
+  <si>
+    <t>15-11-2022 09:41:37</t>
+  </si>
+  <si>
+    <t>15-11-2022 09:43:10</t>
   </si>
 </sst>
 </file>
@@ -902,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D279"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4814,6 +4916,482 @@
         <v>281</v>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>188</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" t="s">
+        <v>2</v>
+      </c>
+      <c r="D280" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>190</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" t="s">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>192</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" t="s">
+        <v>2</v>
+      </c>
+      <c r="D282" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>194</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" t="s">
+        <v>2</v>
+      </c>
+      <c r="D283" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>196</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" t="s">
+        <v>2</v>
+      </c>
+      <c r="D284" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>0</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1</v>
+      </c>
+      <c r="C285" t="s">
+        <v>2</v>
+      </c>
+      <c r="D285" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>46</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" t="s">
+        <v>2</v>
+      </c>
+      <c r="D286" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>48</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1</v>
+      </c>
+      <c r="C287" t="s">
+        <v>2</v>
+      </c>
+      <c r="D287" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>50</v>
+      </c>
+      <c r="B288" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" t="s">
+        <v>2</v>
+      </c>
+      <c r="D288" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>55</v>
+      </c>
+      <c r="B289" t="s">
+        <v>4</v>
+      </c>
+      <c r="C289" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>188</v>
+      </c>
+      <c r="B290" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" t="s">
+        <v>2</v>
+      </c>
+      <c r="D290" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>188</v>
+      </c>
+      <c r="B291" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291" t="s">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>188</v>
+      </c>
+      <c r="B292" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" t="s">
+        <v>2</v>
+      </c>
+      <c r="D292" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>190</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" t="s">
+        <v>2</v>
+      </c>
+      <c r="D293" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>192</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" t="s">
+        <v>2</v>
+      </c>
+      <c r="D294" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>194</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" t="s">
+        <v>2</v>
+      </c>
+      <c r="D295" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>196</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" t="s">
+        <v>2</v>
+      </c>
+      <c r="D296" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>0</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" t="s">
+        <v>2</v>
+      </c>
+      <c r="D297" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>46</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298" t="s">
+        <v>2</v>
+      </c>
+      <c r="D298" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>48</v>
+      </c>
+      <c r="B299" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299" t="s">
+        <v>2</v>
+      </c>
+      <c r="D299" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>50</v>
+      </c>
+      <c r="B300" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300" t="s">
+        <v>2</v>
+      </c>
+      <c r="D300" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>55</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" t="s">
+        <v>2</v>
+      </c>
+      <c r="D301" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>188</v>
+      </c>
+      <c r="B302" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302" t="s">
+        <v>2</v>
+      </c>
+      <c r="D302" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>190</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" t="s">
+        <v>2</v>
+      </c>
+      <c r="D303" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>192</v>
+      </c>
+      <c r="B304" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304" t="s">
+        <v>2</v>
+      </c>
+      <c r="D304" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>194</v>
+      </c>
+      <c r="B305" t="s">
+        <v>4</v>
+      </c>
+      <c r="C305" t="s">
+        <v>2</v>
+      </c>
+      <c r="D305" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>196</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" t="s">
+        <v>2</v>
+      </c>
+      <c r="D306" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>0</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1</v>
+      </c>
+      <c r="C307" t="s">
+        <v>2</v>
+      </c>
+      <c r="D307" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>46</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308" t="s">
+        <v>2</v>
+      </c>
+      <c r="D308" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>48</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" t="s">
+        <v>2</v>
+      </c>
+      <c r="D309" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>50</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" t="s">
+        <v>2</v>
+      </c>
+      <c r="D310" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>55</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" t="s">
+        <v>2</v>
+      </c>
+      <c r="D311" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>32</v>
+      </c>
+      <c r="B312" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312" t="s">
+        <v>2</v>
+      </c>
+      <c r="D312" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>32</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1</v>
+      </c>
+      <c r="C313" t="s">
+        <v>2</v>
+      </c>
+      <c r="D313" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/_02_ApachePOI/Resources/ScenarioStatus.xlsx
+++ b/src/test/java/_02_ApachePOI/Resources/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="337">
   <si>
     <t>Add Nationality Positive</t>
   </si>
@@ -960,6 +960,69 @@
   </si>
   <si>
     <t>15-11-2022 09:43:10</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:23:18</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:23:39</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:23:43</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:23:44</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:26:36</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:30:04</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:30:22</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:30:54</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:31:01</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:32:07</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:37:22</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:44:04</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:44:28</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:45:05</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:45:46</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:46:30</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:46:50</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:47:11</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:47:46</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:48:26</t>
+  </si>
+  <si>
+    <t>15-11-2022 10:48:55</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D338"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5392,6 +5455,356 @@
         <v>315</v>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>188</v>
+      </c>
+      <c r="B314" t="s">
+        <v>4</v>
+      </c>
+      <c r="C314" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>190</v>
+      </c>
+      <c r="B315" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315" t="s">
+        <v>2</v>
+      </c>
+      <c r="D315" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>192</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>2</v>
+      </c>
+      <c r="D316" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>194</v>
+      </c>
+      <c r="B317" t="s">
+        <v>4</v>
+      </c>
+      <c r="C317" t="s">
+        <v>2</v>
+      </c>
+      <c r="D317" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>196</v>
+      </c>
+      <c r="B318" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318" t="s">
+        <v>2</v>
+      </c>
+      <c r="D318" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>0</v>
+      </c>
+      <c r="B319" t="s">
+        <v>4</v>
+      </c>
+      <c r="C319" t="s">
+        <v>2</v>
+      </c>
+      <c r="D319" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>46</v>
+      </c>
+      <c r="B320" t="s">
+        <v>4</v>
+      </c>
+      <c r="C320" t="s">
+        <v>2</v>
+      </c>
+      <c r="D320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>48</v>
+      </c>
+      <c r="B321" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321" t="s">
+        <v>2</v>
+      </c>
+      <c r="D321" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>188</v>
+      </c>
+      <c r="B322" t="s">
+        <v>4</v>
+      </c>
+      <c r="C322" t="s">
+        <v>2</v>
+      </c>
+      <c r="D322" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>188</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323" t="s">
+        <v>2</v>
+      </c>
+      <c r="D323" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>190</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1</v>
+      </c>
+      <c r="C324" t="s">
+        <v>2</v>
+      </c>
+      <c r="D324" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>192</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325" t="s">
+        <v>2</v>
+      </c>
+      <c r="D325" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>194</v>
+      </c>
+      <c r="B326" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" t="s">
+        <v>2</v>
+      </c>
+      <c r="D326" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>196</v>
+      </c>
+      <c r="B327" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" t="s">
+        <v>2</v>
+      </c>
+      <c r="D327" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>188</v>
+      </c>
+      <c r="B328" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" t="s">
+        <v>2</v>
+      </c>
+      <c r="D328" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>188</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1</v>
+      </c>
+      <c r="C329" t="s">
+        <v>2</v>
+      </c>
+      <c r="D329" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>190</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1</v>
+      </c>
+      <c r="C330" t="s">
+        <v>2</v>
+      </c>
+      <c r="D330" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>192</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1</v>
+      </c>
+      <c r="C331" t="s">
+        <v>2</v>
+      </c>
+      <c r="D331" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>194</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1</v>
+      </c>
+      <c r="C332" t="s">
+        <v>2</v>
+      </c>
+      <c r="D332" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>196</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1</v>
+      </c>
+      <c r="C333" t="s">
+        <v>2</v>
+      </c>
+      <c r="D333" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>0</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1</v>
+      </c>
+      <c r="C334" t="s">
+        <v>2</v>
+      </c>
+      <c r="D334" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>46</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1</v>
+      </c>
+      <c r="C335" t="s">
+        <v>2</v>
+      </c>
+      <c r="D335" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>48</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1</v>
+      </c>
+      <c r="C336" t="s">
+        <v>2</v>
+      </c>
+      <c r="D336" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>50</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337" t="s">
+        <v>2</v>
+      </c>
+      <c r="D337" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>55</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1</v>
+      </c>
+      <c r="C338" t="s">
+        <v>2</v>
+      </c>
+      <c r="D338" t="s">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/_02_ApachePOI/Resources/ScenarioStatus.xlsx
+++ b/src/test/java/_02_ApachePOI/Resources/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="357">
   <si>
     <t>Add Nationality Positive</t>
   </si>
@@ -1023,6 +1023,66 @@
   </si>
   <si>
     <t>15-11-2022 10:48:55</t>
+  </si>
+  <si>
+    <t>15-11-2022 11:08:20</t>
+  </si>
+  <si>
+    <t>15-11-2022 11:08:41</t>
+  </si>
+  <si>
+    <t>15-11-2022 11:09:20</t>
+  </si>
+  <si>
+    <t>15-11-2022 11:10:02</t>
+  </si>
+  <si>
+    <t>15-11-2022 11:10:42</t>
+  </si>
+  <si>
+    <t>Add Fields Positive</t>
+  </si>
+  <si>
+    <t>15-11-2022 11:11:09</t>
+  </si>
+  <si>
+    <t>Add Fields Negative</t>
+  </si>
+  <si>
+    <t>15-11-2022 11:11:31</t>
+  </si>
+  <si>
+    <t>Edit Fields</t>
+  </si>
+  <si>
+    <t>15-11-2022 11:12:08</t>
+  </si>
+  <si>
+    <t>Delete Fields Positive</t>
+  </si>
+  <si>
+    <t>15-11-2022 11:12:50</t>
+  </si>
+  <si>
+    <t>Delete Fields Negative</t>
+  </si>
+  <si>
+    <t>15-11-2022 11:13:31</t>
+  </si>
+  <si>
+    <t>15-11-2022 11:13:49</t>
+  </si>
+  <si>
+    <t>15-11-2022 11:14:08</t>
+  </si>
+  <si>
+    <t>15-11-2022 11:14:41</t>
+  </si>
+  <si>
+    <t>15-11-2022 11:15:20</t>
+  </si>
+  <si>
+    <t>15-11-2022 11:15:46</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D338"/>
+  <dimension ref="A1:D353"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5805,6 +5865,216 @@
         <v>336</v>
       </c>
     </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>188</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1</v>
+      </c>
+      <c r="C339" t="s">
+        <v>2</v>
+      </c>
+      <c r="D339" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>190</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1</v>
+      </c>
+      <c r="C340" t="s">
+        <v>2</v>
+      </c>
+      <c r="D340" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>192</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1</v>
+      </c>
+      <c r="C341" t="s">
+        <v>2</v>
+      </c>
+      <c r="D341" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>194</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1</v>
+      </c>
+      <c r="C342" t="s">
+        <v>2</v>
+      </c>
+      <c r="D342" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>196</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1</v>
+      </c>
+      <c r="C343" t="s">
+        <v>2</v>
+      </c>
+      <c r="D343" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1</v>
+      </c>
+      <c r="C344" t="s">
+        <v>2</v>
+      </c>
+      <c r="D344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1</v>
+      </c>
+      <c r="C345" t="s">
+        <v>2</v>
+      </c>
+      <c r="D345" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1</v>
+      </c>
+      <c r="C346" t="s">
+        <v>2</v>
+      </c>
+      <c r="D346" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>348</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1</v>
+      </c>
+      <c r="C347" t="s">
+        <v>2</v>
+      </c>
+      <c r="D347" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>350</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1</v>
+      </c>
+      <c r="C348" t="s">
+        <v>2</v>
+      </c>
+      <c r="D348" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>0</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1</v>
+      </c>
+      <c r="C349" t="s">
+        <v>2</v>
+      </c>
+      <c r="D349" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>46</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1</v>
+      </c>
+      <c r="C350" t="s">
+        <v>2</v>
+      </c>
+      <c r="D350" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>48</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1</v>
+      </c>
+      <c r="C351" t="s">
+        <v>2</v>
+      </c>
+      <c r="D351" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>50</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1</v>
+      </c>
+      <c r="C352" t="s">
+        <v>2</v>
+      </c>
+      <c r="D352" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>55</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1</v>
+      </c>
+      <c r="C353" t="s">
+        <v>2</v>
+      </c>
+      <c r="D353" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/_02_ApachePOI/Resources/ScenarioStatus.xlsx
+++ b/src/test/java/_02_ApachePOI/Resources/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="204">
   <si>
     <t>Add Nationality Positive</t>
   </si>
@@ -567,6 +567,63 @@
   </si>
   <si>
     <t>26-10-2022 21:55:24</t>
+  </si>
+  <si>
+    <t>Add Academic Period Positive</t>
+  </si>
+  <si>
+    <t>16-11-2022 02:11:14</t>
+  </si>
+  <si>
+    <t>Add Academic Period Negative1</t>
+  </si>
+  <si>
+    <t>16-11-2022 02:11:36</t>
+  </si>
+  <si>
+    <t>Add Academic Period Negative2</t>
+  </si>
+  <si>
+    <t>16-11-2022 02:12:06</t>
+  </si>
+  <si>
+    <t>Add Academic Period Negative3</t>
+  </si>
+  <si>
+    <t>16-11-2022 02:12:35</t>
+  </si>
+  <si>
+    <t>Edit Academic Period</t>
+  </si>
+  <si>
+    <t>16-11-2022 02:13:01</t>
+  </si>
+  <si>
+    <t>Delete Academic Period Positive</t>
+  </si>
+  <si>
+    <t>16-11-2022 02:13:29</t>
+  </si>
+  <si>
+    <t>16-11-2022 02:17:10</t>
+  </si>
+  <si>
+    <t>16-11-2022 02:20:48</t>
+  </si>
+  <si>
+    <t>16-11-2022 02:21:12</t>
+  </si>
+  <si>
+    <t>16-11-2022 02:21:39</t>
+  </si>
+  <si>
+    <t>16-11-2022 02:22:09</t>
+  </si>
+  <si>
+    <t>16-11-2022 02:22:34</t>
+  </si>
+  <si>
+    <t>16-11-2022 02:23:01</t>
   </si>
 </sst>
 </file>
@@ -611,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2997,6 +3054,188 @@
         <v>184</v>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>185</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>187</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>189</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>191</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>193</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>195</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>187</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>185</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>189</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>191</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>193</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
